--- a/data/pca/factorExposure/factorExposure_2015-10-08.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-10-08.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +717,100 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.01817942240739953</v>
+        <v>-0.0178403040524666</v>
       </c>
       <c r="C2">
-        <v>0.02634263036122132</v>
+        <v>0.03325660419093689</v>
       </c>
       <c r="D2">
-        <v>-0.1139854051162518</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.1290094673058328</v>
+      </c>
+      <c r="E2">
+        <v>-0.05051828266122763</v>
+      </c>
+      <c r="F2">
+        <v>0.02701451878906647</v>
+      </c>
+      <c r="G2">
+        <v>-0.04671392953563985</v>
+      </c>
+      <c r="H2">
+        <v>-0.1024049361991228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.01367444053272042</v>
+        <v>-0.008876047718483649</v>
       </c>
       <c r="C3">
-        <v>0.04757164049989325</v>
+        <v>0.03840342726798293</v>
       </c>
       <c r="D3">
-        <v>-0.07663684625956249</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.05508165945176958</v>
+      </c>
+      <c r="E3">
+        <v>-0.05182535414455517</v>
+      </c>
+      <c r="F3">
+        <v>0.06245466676822762</v>
+      </c>
+      <c r="G3">
+        <v>-0.1073949785473066</v>
+      </c>
+      <c r="H3">
+        <v>-0.0997447208281303</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.0462262681144895</v>
+        <v>-0.04654289914543348</v>
       </c>
       <c r="C4">
-        <v>0.06350809689908017</v>
+        <v>0.07351261100390767</v>
       </c>
       <c r="D4">
-        <v>-0.123963984566907</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.1491306633695762</v>
+      </c>
+      <c r="E4">
+        <v>-0.06086327945333291</v>
+      </c>
+      <c r="F4">
+        <v>0.04783731829870364</v>
+      </c>
+      <c r="G4">
+        <v>0.04406531774890925</v>
+      </c>
+      <c r="H4">
+        <v>-0.009608948771049928</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.0356705723899622</v>
+        <v>-0.03749128083582652</v>
       </c>
       <c r="C6">
-        <v>0.02317314289051518</v>
+        <v>0.02914156464697441</v>
       </c>
       <c r="D6">
-        <v>-0.1517074043314423</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.1404769226108896</v>
+      </c>
+      <c r="E6">
+        <v>-0.01332307454420187</v>
+      </c>
+      <c r="F6">
+        <v>0.02738179808088012</v>
+      </c>
+      <c r="G6">
+        <v>0.01995765239670548</v>
+      </c>
+      <c r="H6">
+        <v>-0.05896753511706945</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.01794535563384782</v>
+        <v>-0.01461985226768297</v>
       </c>
       <c r="C7">
-        <v>0.02647839478321417</v>
+        <v>0.03221889624455992</v>
       </c>
       <c r="D7">
-        <v>-0.1080762952822577</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.09782095471887735</v>
+      </c>
+      <c r="E7">
+        <v>-0.009099956045766543</v>
+      </c>
+      <c r="F7">
+        <v>0.02819192585593838</v>
+      </c>
+      <c r="G7">
+        <v>-0.003290469553402372</v>
+      </c>
+      <c r="H7">
+        <v>-0.07142573715285641</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.01031827364412498</v>
+        <v>-0.008162783385323155</v>
       </c>
       <c r="C8">
-        <v>0.03349263873916324</v>
+        <v>0.03648138777432201</v>
       </c>
       <c r="D8">
-        <v>-0.06534421972666821</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.07619013277243057</v>
+      </c>
+      <c r="E8">
+        <v>-0.02700015448948847</v>
+      </c>
+      <c r="F8">
+        <v>0.06735064050459559</v>
+      </c>
+      <c r="G8">
+        <v>-0.0302256318611595</v>
+      </c>
+      <c r="H8">
+        <v>-0.06088254601254824</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.03926516129388442</v>
+        <v>-0.03835151570799313</v>
       </c>
       <c r="C9">
-        <v>0.05539330669041823</v>
+        <v>0.06563842885148165</v>
       </c>
       <c r="D9">
-        <v>-0.1106566607440799</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.1229563134446257</v>
+      </c>
+      <c r="E9">
+        <v>-0.04369952751258934</v>
+      </c>
+      <c r="F9">
+        <v>0.02692086532306414</v>
+      </c>
+      <c r="G9">
+        <v>0.02566202423838295</v>
+      </c>
+      <c r="H9">
+        <v>-0.00970815259236907</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.1141189644252836</v>
+        <v>-0.1508029511726551</v>
       </c>
       <c r="C10">
-        <v>-0.1897191852173345</v>
+        <v>-0.1889228532931968</v>
       </c>
       <c r="D10">
-        <v>-0.006686793071891053</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.01150531869081245</v>
+      </c>
+      <c r="E10">
+        <v>-0.03748007317263828</v>
+      </c>
+      <c r="F10">
+        <v>0.05257604478170239</v>
+      </c>
+      <c r="G10">
+        <v>-0.00291278466563528</v>
+      </c>
+      <c r="H10">
+        <v>0.04289687337818422</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.03087010513877971</v>
+        <v>-0.02844344458734385</v>
       </c>
       <c r="C11">
-        <v>0.04214815650312437</v>
+        <v>0.04567859521533042</v>
       </c>
       <c r="D11">
-        <v>-0.06252182891339199</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.05967675807059826</v>
+      </c>
+      <c r="E11">
+        <v>0.009890216238884761</v>
+      </c>
+      <c r="F11">
+        <v>-0.006615877693851928</v>
+      </c>
+      <c r="G11">
+        <v>0.003253334321343232</v>
+      </c>
+      <c r="H11">
+        <v>-0.03037994763091762</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.03720469179589406</v>
+        <v>-0.03318450033527923</v>
       </c>
       <c r="C12">
-        <v>0.04317528717440262</v>
+        <v>0.04733519300056547</v>
       </c>
       <c r="D12">
-        <v>-0.06201733760010886</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.05681595875468521</v>
+      </c>
+      <c r="E12">
+        <v>0.0001567339672221938</v>
+      </c>
+      <c r="F12">
+        <v>-0.01014059265723534</v>
+      </c>
+      <c r="G12">
+        <v>-0.003161573754254165</v>
+      </c>
+      <c r="H12">
+        <v>-0.0311133193232453</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.01151622954138141</v>
+        <v>-0.01697023859423618</v>
       </c>
       <c r="C13">
-        <v>0.03475599686509217</v>
+        <v>0.03838067694309327</v>
       </c>
       <c r="D13">
-        <v>-0.1392739593229476</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.1557879223131602</v>
+      </c>
+      <c r="E13">
+        <v>-0.02258849501443197</v>
+      </c>
+      <c r="F13">
+        <v>0.06103274324020875</v>
+      </c>
+      <c r="G13">
+        <v>-0.02150406683475383</v>
+      </c>
+      <c r="H13">
+        <v>-0.06824324766760365</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.004881985613287979</v>
+        <v>-0.007544793328619458</v>
       </c>
       <c r="C14">
-        <v>0.02103542199384132</v>
+        <v>0.02334862534934522</v>
       </c>
       <c r="D14">
-        <v>-0.09229674820387783</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.09565079965509296</v>
+      </c>
+      <c r="E14">
+        <v>-0.02706113188663509</v>
+      </c>
+      <c r="F14">
+        <v>0.01532297336341918</v>
+      </c>
+      <c r="G14">
+        <v>-0.002376095715246142</v>
+      </c>
+      <c r="H14">
+        <v>-0.09330656804716697</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.002581999271957558</v>
+        <v>-0.001395874290577495</v>
       </c>
       <c r="C15">
-        <v>0.005418007097625453</v>
+        <v>0.01200536765201599</v>
       </c>
       <c r="D15">
-        <v>-0.007609305775962097</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.03613699124789439</v>
+      </c>
+      <c r="E15">
+        <v>-0.009850852784982485</v>
+      </c>
+      <c r="F15">
+        <v>0.001726956336998141</v>
+      </c>
+      <c r="G15">
+        <v>-0.0001049209611473786</v>
+      </c>
+      <c r="H15">
+        <v>-0.02416234369909058</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.03132659540408553</v>
+        <v>-0.02896982264651666</v>
       </c>
       <c r="C16">
-        <v>0.04403097182493472</v>
+        <v>0.04610356389116498</v>
       </c>
       <c r="D16">
-        <v>-0.06768656821808414</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.06225649354562898</v>
+      </c>
+      <c r="E16">
+        <v>-0.006481926770311982</v>
+      </c>
+      <c r="F16">
+        <v>-0.0007539461854325644</v>
+      </c>
+      <c r="G16">
+        <v>0.002795201362946256</v>
+      </c>
+      <c r="H16">
+        <v>-0.04429899411996872</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.01062231793209166</v>
+        <v>-0.008098404083083793</v>
       </c>
       <c r="C19">
-        <v>0.03131049497806396</v>
+        <v>0.02645706743248548</v>
       </c>
       <c r="D19">
-        <v>-0.1471207024924845</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.1140240367290131</v>
+      </c>
+      <c r="E19">
+        <v>-0.05327812008327774</v>
+      </c>
+      <c r="F19">
+        <v>0.005110690878321258</v>
+      </c>
+      <c r="G19">
+        <v>-0.02560830884485778</v>
+      </c>
+      <c r="H19">
+        <v>-0.04872721465804512</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.01333450588241965</v>
+        <v>-0.01523756901903801</v>
       </c>
       <c r="C20">
-        <v>0.03027572420747872</v>
+        <v>0.03448015259543075</v>
       </c>
       <c r="D20">
-        <v>-0.09148100643920365</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.1047534352792195</v>
+      </c>
+      <c r="E20">
+        <v>-0.0456509925380628</v>
+      </c>
+      <c r="F20">
+        <v>0.01546861658799964</v>
+      </c>
+      <c r="G20">
+        <v>0.007141835774378227</v>
+      </c>
+      <c r="H20">
+        <v>-0.05217293305420732</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.00856658488549108</v>
+        <v>-0.009317581305656589</v>
       </c>
       <c r="C21">
-        <v>0.03177014399157019</v>
+        <v>0.0370700698339509</v>
       </c>
       <c r="D21">
-        <v>-0.1420414602338183</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.1426228241037826</v>
+      </c>
+      <c r="E21">
+        <v>-0.07722825481835527</v>
+      </c>
+      <c r="F21">
+        <v>0.04489434876632047</v>
+      </c>
+      <c r="G21">
+        <v>0.002249549744512114</v>
+      </c>
+      <c r="H21">
+        <v>-0.07188298392669973</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.001324155694686844</v>
+        <v>-0.007381719895399989</v>
       </c>
       <c r="C22">
-        <v>0.04760583213002938</v>
+        <v>0.04184843854162535</v>
       </c>
       <c r="D22">
-        <v>-0.110148004448156</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.1618944251800875</v>
+      </c>
+      <c r="E22">
+        <v>-0.01553684154827283</v>
+      </c>
+      <c r="F22">
+        <v>0.09104636228537714</v>
+      </c>
+      <c r="G22">
+        <v>-0.06443945484859991</v>
+      </c>
+      <c r="H22">
+        <v>-0.06048377608577411</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.00117161891919794</v>
+        <v>-0.007529273521819113</v>
       </c>
       <c r="C23">
-        <v>0.04790196279440637</v>
+        <v>0.04232243850273858</v>
       </c>
       <c r="D23">
-        <v>-0.1097005007253099</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.1612514785529979</v>
+      </c>
+      <c r="E23">
+        <v>-0.01592795590782949</v>
+      </c>
+      <c r="F23">
+        <v>0.09127485707728228</v>
+      </c>
+      <c r="G23">
+        <v>-0.06368927430154089</v>
+      </c>
+      <c r="H23">
+        <v>-0.05976090557526114</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.03480995845040405</v>
+        <v>-0.03059240446826651</v>
       </c>
       <c r="C24">
-        <v>0.05513089421576288</v>
+        <v>0.0578425161129829</v>
       </c>
       <c r="D24">
-        <v>-0.06899516290810645</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.06572412712335689</v>
+      </c>
+      <c r="E24">
+        <v>-0.007304101983667194</v>
+      </c>
+      <c r="F24">
+        <v>-0.001634721400895637</v>
+      </c>
+      <c r="G24">
+        <v>0.0128403267591554</v>
+      </c>
+      <c r="H24">
+        <v>-0.04679782958519817</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.03914371922671242</v>
+        <v>-0.03467489260364107</v>
       </c>
       <c r="C25">
-        <v>0.05213194987202901</v>
+        <v>0.05486039143973202</v>
       </c>
       <c r="D25">
-        <v>-0.0669021031711587</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.06250184727248925</v>
+      </c>
+      <c r="E25">
+        <v>-0.007726320850972288</v>
+      </c>
+      <c r="F25">
+        <v>0.0006212674650346575</v>
+      </c>
+      <c r="G25">
+        <v>-0.0007895116947903143</v>
+      </c>
+      <c r="H25">
+        <v>-0.02119583253370031</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.01488200298958263</v>
+        <v>-0.01589903512504931</v>
       </c>
       <c r="C26">
-        <v>0.01088313553889867</v>
+        <v>0.01844814433176491</v>
       </c>
       <c r="D26">
-        <v>-0.05804556047695275</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.06326415570602563</v>
+      </c>
+      <c r="E26">
+        <v>-0.02021872472154703</v>
+      </c>
+      <c r="F26">
+        <v>0.01878168589098648</v>
+      </c>
+      <c r="G26">
+        <v>0.002336840812384419</v>
+      </c>
+      <c r="H26">
+        <v>-0.05808861780662743</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.1669748692499066</v>
+        <v>-0.2181534117223773</v>
       </c>
       <c r="C28">
-        <v>-0.2670872296423627</v>
+        <v>-0.2572852331503922</v>
       </c>
       <c r="D28">
-        <v>0.003664868922053306</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.0006300339197092207</v>
+      </c>
+      <c r="E28">
+        <v>-0.07426335384345424</v>
+      </c>
+      <c r="F28">
+        <v>0.04317537569843828</v>
+      </c>
+      <c r="G28">
+        <v>0.02259421702622609</v>
+      </c>
+      <c r="H28">
+        <v>0.06215934655715979</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.0008221917646444037</v>
+        <v>-0.004491490108340625</v>
       </c>
       <c r="C29">
-        <v>0.02134048785221414</v>
+        <v>0.02185657973750032</v>
       </c>
       <c r="D29">
-        <v>-0.08129144527869173</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.0930438013763184</v>
+      </c>
+      <c r="E29">
+        <v>-0.01756260918470185</v>
+      </c>
+      <c r="F29">
+        <v>0.03297254149131334</v>
+      </c>
+      <c r="G29">
+        <v>0.007675651835041674</v>
+      </c>
+      <c r="H29">
+        <v>-0.08987322063496678</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.02939430325775116</v>
+        <v>-0.03546508278780059</v>
       </c>
       <c r="C30">
-        <v>0.05488846167567411</v>
+        <v>0.06396684041346549</v>
       </c>
       <c r="D30">
-        <v>-0.1593949068761353</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1722891434934069</v>
+      </c>
+      <c r="E30">
+        <v>-0.02032553226926103</v>
+      </c>
+      <c r="F30">
+        <v>0.02891798355334081</v>
+      </c>
+      <c r="G30">
+        <v>0.02444167071449116</v>
+      </c>
+      <c r="H30">
+        <v>-0.07289712625657453</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.06112211455595831</v>
+        <v>-0.05177081226374022</v>
       </c>
       <c r="C31">
-        <v>0.06432156377730604</v>
+        <v>0.07634810566970228</v>
       </c>
       <c r="D31">
-        <v>-0.07217740548447873</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.05715038346642468</v>
+      </c>
+      <c r="E31">
+        <v>-0.01631812720187987</v>
+      </c>
+      <c r="F31">
+        <v>0.04160195878195967</v>
+      </c>
+      <c r="G31">
+        <v>-0.00679173185683132</v>
+      </c>
+      <c r="H31">
+        <v>-0.01116703778133379</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.01161681401654251</v>
+        <v>-0.01604856943941792</v>
       </c>
       <c r="C32">
-        <v>0.01544221175574065</v>
+        <v>0.0170393216609442</v>
       </c>
       <c r="D32">
-        <v>-0.08513086361502814</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.1148814558842762</v>
+      </c>
+      <c r="E32">
+        <v>-0.06551598309689692</v>
+      </c>
+      <c r="F32">
+        <v>0.05239784492841906</v>
+      </c>
+      <c r="G32">
+        <v>0.001478668409013183</v>
+      </c>
+      <c r="H32">
+        <v>-0.05334348052552024</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.02349132318383376</v>
+        <v>-0.02455287138277938</v>
       </c>
       <c r="C33">
-        <v>0.04078840975017978</v>
+        <v>0.04502137137252583</v>
       </c>
       <c r="D33">
-        <v>-0.1401902304041232</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1351566086565986</v>
+      </c>
+      <c r="E33">
+        <v>-0.03575674521934288</v>
+      </c>
+      <c r="F33">
+        <v>0.02565638005082563</v>
+      </c>
+      <c r="G33">
+        <v>-0.001066139196626928</v>
+      </c>
+      <c r="H33">
+        <v>-0.06254501033853974</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.03080142887070731</v>
+        <v>-0.02514598666057085</v>
       </c>
       <c r="C34">
-        <v>0.06551304621825901</v>
+        <v>0.06257502428674398</v>
       </c>
       <c r="D34">
-        <v>-0.06785583409800015</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.05590904150095963</v>
+      </c>
+      <c r="E34">
+        <v>0.007523600386380207</v>
+      </c>
+      <c r="F34">
+        <v>-0.01364381601806191</v>
+      </c>
+      <c r="G34">
+        <v>-0.002087651006291352</v>
+      </c>
+      <c r="H34">
+        <v>-0.0432571952088307</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>-0.0009123713494780147</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.0009460534466099302</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.007760687120905787</v>
+      </c>
+      <c r="E35">
+        <v>0.0003071134449441396</v>
+      </c>
+      <c r="F35">
+        <v>0.0004767773585066478</v>
+      </c>
+      <c r="G35">
+        <v>2.860752042051754e-05</v>
+      </c>
+      <c r="H35">
+        <v>-0.004421483135554011</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01801066211747705</v>
+        <v>-0.01905876405874892</v>
       </c>
       <c r="C36">
-        <v>0.007428567562043871</v>
+        <v>0.0153147363052636</v>
       </c>
       <c r="D36">
-        <v>-0.08215697148274885</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.07897244816320736</v>
+      </c>
+      <c r="E36">
+        <v>-0.02657023881838838</v>
+      </c>
+      <c r="F36">
+        <v>0.01569219801745457</v>
+      </c>
+      <c r="G36">
+        <v>0.01243165173352566</v>
+      </c>
+      <c r="H36">
+        <v>-0.04531799484016538</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.01972632900400754</v>
+        <v>-0.02224385095587016</v>
       </c>
       <c r="C38">
-        <v>0.01902080584226721</v>
+        <v>0.01857833016272999</v>
       </c>
       <c r="D38">
-        <v>-0.06640212954559302</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.06814421831431676</v>
+      </c>
+      <c r="E38">
+        <v>-0.03282822421839074</v>
+      </c>
+      <c r="F38">
+        <v>-0.01342271638066666</v>
+      </c>
+      <c r="G38">
+        <v>-0.02175121443441516</v>
+      </c>
+      <c r="H38">
+        <v>-0.04465801054861055</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.0373753571398538</v>
+        <v>-0.03442200356110201</v>
       </c>
       <c r="C39">
-        <v>0.0578623088681977</v>
+        <v>0.06827949793940517</v>
       </c>
       <c r="D39">
-        <v>-0.09233975941846874</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1030575789199411</v>
+      </c>
+      <c r="E39">
+        <v>-0.009332244852629026</v>
+      </c>
+      <c r="F39">
+        <v>-0.02228387523722454</v>
+      </c>
+      <c r="G39">
+        <v>0.02511709080757098</v>
+      </c>
+      <c r="H39">
+        <v>-0.08452149578247128</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.01410669145260678</v>
+        <v>-0.01376962093748269</v>
       </c>
       <c r="C40">
-        <v>0.04203537432018569</v>
+        <v>0.03619512409515978</v>
       </c>
       <c r="D40">
-        <v>-0.08438976744602647</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.08978298385613281</v>
+      </c>
+      <c r="E40">
+        <v>-0.03733724950504011</v>
+      </c>
+      <c r="F40">
+        <v>0.09835441131441869</v>
+      </c>
+      <c r="G40">
+        <v>-0.1026185651800926</v>
+      </c>
+      <c r="H40">
+        <v>-0.1589926386784802</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.02485794562763268</v>
+        <v>-0.02417563975950904</v>
       </c>
       <c r="C41">
-        <v>0.001985622975266384</v>
+        <v>0.008765808340859486</v>
       </c>
       <c r="D41">
-        <v>-0.07053855303857252</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.05364801969854294</v>
+      </c>
+      <c r="E41">
+        <v>-0.04797173195586533</v>
+      </c>
+      <c r="F41">
+        <v>0.01832433514172122</v>
+      </c>
+      <c r="G41">
+        <v>-0.01951947721101463</v>
+      </c>
+      <c r="H41">
+        <v>-0.04172768928142656</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.0264097420680016</v>
+        <v>-0.02346786811093978</v>
       </c>
       <c r="C43">
-        <v>0.01349997156403881</v>
+        <v>0.01817616326364171</v>
       </c>
       <c r="D43">
-        <v>-0.1107292750844761</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.08483235276308136</v>
+      </c>
+      <c r="E43">
+        <v>-0.02350331950729209</v>
+      </c>
+      <c r="F43">
+        <v>0.01241075358599345</v>
+      </c>
+      <c r="G43">
+        <v>-0.02141185788260209</v>
+      </c>
+      <c r="H43">
+        <v>-0.04768672080653422</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.01391891168803704</v>
+        <v>-0.01663056292211924</v>
       </c>
       <c r="C44">
-        <v>0.04175298070129644</v>
+        <v>0.03920347292077974</v>
       </c>
       <c r="D44">
-        <v>-0.08941366404885479</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.1057915893874535</v>
+      </c>
+      <c r="E44">
+        <v>-0.04231820134750483</v>
+      </c>
+      <c r="F44">
+        <v>0.02499288063645509</v>
+      </c>
+      <c r="G44">
+        <v>-0.009660029478807361</v>
+      </c>
+      <c r="H44">
+        <v>-0.05210036633692878</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1861,100 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.0133216847710397</v>
+        <v>-0.01183895358881937</v>
       </c>
       <c r="C46">
-        <v>0.02423638733610192</v>
+        <v>0.03080708681246362</v>
       </c>
       <c r="D46">
-        <v>-0.08796547345923134</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.08862291761817015</v>
+      </c>
+      <c r="E46">
+        <v>-0.02974854886011674</v>
+      </c>
+      <c r="F46">
+        <v>0.01462643662601379</v>
+      </c>
+      <c r="G46">
+        <v>0.01060461032718342</v>
+      </c>
+      <c r="H46">
+        <v>-0.0821396978109894</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.09249529236189243</v>
+        <v>-0.07973952899721097</v>
       </c>
       <c r="C47">
-        <v>0.07374430257125722</v>
+        <v>0.09165751737560958</v>
       </c>
       <c r="D47">
-        <v>-0.04407446078701579</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.03599396324697297</v>
+      </c>
+      <c r="E47">
+        <v>-0.03090808750291356</v>
+      </c>
+      <c r="F47">
+        <v>0.03352468272551104</v>
+      </c>
+      <c r="G47">
+        <v>-0.02221460828504382</v>
+      </c>
+      <c r="H47">
+        <v>0.05007203520527311</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.01172115846206785</v>
+        <v>-0.01428957944816199</v>
       </c>
       <c r="C48">
-        <v>0.0173009870094541</v>
+        <v>0.02055773874377541</v>
       </c>
       <c r="D48">
-        <v>-0.0700293718766361</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.07422046010150762</v>
+      </c>
+      <c r="E48">
+        <v>-0.05472236541938315</v>
+      </c>
+      <c r="F48">
+        <v>0.0239574194142398</v>
+      </c>
+      <c r="G48">
+        <v>0.009090957439771541</v>
+      </c>
+      <c r="H48">
+        <v>-0.05451197559601913</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1965,74 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.0585434239050328</v>
+        <v>-0.04981275989113499</v>
       </c>
       <c r="C50">
-        <v>0.05550434575349747</v>
+        <v>0.06755221723686966</v>
       </c>
       <c r="D50">
-        <v>-0.06212870407419709</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.05527654560948744</v>
+      </c>
+      <c r="E50">
+        <v>-0.01937670094067826</v>
+      </c>
+      <c r="F50">
+        <v>0.04518035359915965</v>
+      </c>
+      <c r="G50">
+        <v>-0.03975841199553697</v>
+      </c>
+      <c r="H50">
+        <v>-0.01740108164462056</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.01071023550496234</v>
+        <v>-0.0112247175813681</v>
       </c>
       <c r="C51">
-        <v>0.01491187534810863</v>
+        <v>0.02001012991873445</v>
       </c>
       <c r="D51">
-        <v>-0.08058627910154342</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.09039793483777246</v>
+      </c>
+      <c r="E51">
+        <v>-0.005549545969141345</v>
+      </c>
+      <c r="F51">
+        <v>0.004171427476008269</v>
+      </c>
+      <c r="G51">
+        <v>0.01500366558281024</v>
+      </c>
+      <c r="H51">
+        <v>-0.08211130472914172</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.09128261743304966</v>
+        <v>-0.0870848930986447</v>
       </c>
       <c r="C53">
-        <v>0.092325681860027</v>
+        <v>0.1022074173980844</v>
       </c>
       <c r="D53">
-        <v>-0.008951646532901144</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.01812166909977304</v>
+      </c>
+      <c r="E53">
+        <v>-0.09771322588558069</v>
+      </c>
+      <c r="F53">
+        <v>0.09148031637023164</v>
+      </c>
+      <c r="G53">
+        <v>0.04074147612925436</v>
+      </c>
+      <c r="H53">
+        <v>0.02975984953098238</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.02576025959661119</v>
+        <v>-0.02597888200118515</v>
       </c>
       <c r="C54">
-        <v>0.0270916028489118</v>
+        <v>0.03385256102052583</v>
       </c>
       <c r="D54">
-        <v>-0.09338512128450563</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.08750379654204263</v>
+      </c>
+      <c r="E54">
+        <v>-0.03403601986004172</v>
+      </c>
+      <c r="F54">
+        <v>0.006953546718456114</v>
+      </c>
+      <c r="G54">
+        <v>-0.02757716273096598</v>
+      </c>
+      <c r="H54">
+        <v>-0.07891088178577688</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.09128989606392934</v>
+        <v>-0.0833164983403458</v>
       </c>
       <c r="C55">
-        <v>0.06958767057533938</v>
+        <v>0.0821356029606703</v>
       </c>
       <c r="D55">
-        <v>0.01124150834359642</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.005140103456517235</v>
+      </c>
+      <c r="E55">
+        <v>-0.04845737251605353</v>
+      </c>
+      <c r="F55">
+        <v>0.06394390481328822</v>
+      </c>
+      <c r="G55">
+        <v>0.01738425137561045</v>
+      </c>
+      <c r="H55">
+        <v>0.01174544426506334</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1386590958200027</v>
+        <v>-0.1257816834150155</v>
       </c>
       <c r="C56">
-        <v>0.103791936790979</v>
+        <v>0.1298972697184683</v>
       </c>
       <c r="D56">
-        <v>0.00682526297591592</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.008865023829998372</v>
+      </c>
+      <c r="E56">
+        <v>-0.04917140443618195</v>
+      </c>
+      <c r="F56">
+        <v>0.0593262506144531</v>
+      </c>
+      <c r="G56">
+        <v>-0.01063143150089388</v>
+      </c>
+      <c r="H56">
+        <v>0.04717627633396641</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2173,126 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.005597670215646684</v>
+        <v>-0.007074426650811897</v>
       </c>
       <c r="C58">
-        <v>0.02111919043132434</v>
+        <v>0.03704711673689266</v>
       </c>
       <c r="D58">
-        <v>-0.2678810894468374</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.3117367034595966</v>
+      </c>
+      <c r="E58">
+        <v>-0.08374959416860291</v>
+      </c>
+      <c r="F58">
+        <v>0.09530390528609992</v>
+      </c>
+      <c r="G58">
+        <v>-0.05422242668966889</v>
+      </c>
+      <c r="H58">
+        <v>-0.02700440632995656</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.1458446243994814</v>
+        <v>-0.1819157255620313</v>
       </c>
       <c r="C59">
-        <v>-0.1786729610994902</v>
+        <v>-0.1651621834572125</v>
       </c>
       <c r="D59">
-        <v>-0.04376667997515272</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.0568073876967208</v>
+      </c>
+      <c r="E59">
+        <v>-0.04313249545582226</v>
+      </c>
+      <c r="F59">
+        <v>-0.0326122051389913</v>
+      </c>
+      <c r="G59">
+        <v>-0.0006820132935823715</v>
+      </c>
+      <c r="H59">
+        <v>0.01885399060637688</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.2391648848831808</v>
+        <v>-0.2266307572477024</v>
       </c>
       <c r="C60">
-        <v>0.07356302805556189</v>
+        <v>0.1036750534779009</v>
       </c>
       <c r="D60">
-        <v>-0.1882988875907508</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.1329389074028089</v>
+      </c>
+      <c r="E60">
+        <v>0.3192957117494305</v>
+      </c>
+      <c r="F60">
+        <v>-0.0889550462101867</v>
+      </c>
+      <c r="G60">
+        <v>0.03637463389831899</v>
+      </c>
+      <c r="H60">
+        <v>0.1468125738706066</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.04376864547537455</v>
+        <v>-0.03954755327734723</v>
       </c>
       <c r="C61">
-        <v>0.05356325216018937</v>
+        <v>0.06220378465321327</v>
       </c>
       <c r="D61">
-        <v>-0.1026695418808651</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.09342463852853401</v>
+      </c>
+      <c r="E61">
+        <v>-0.002059287021512611</v>
+      </c>
+      <c r="F61">
+        <v>-0.01506170078897319</v>
+      </c>
+      <c r="G61">
+        <v>0.009073838726335557</v>
+      </c>
+      <c r="H61">
+        <v>-0.04698281366055266</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2303,204 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.01652680907919903</v>
+        <v>-0.01593579854965992</v>
       </c>
       <c r="C63">
-        <v>0.02155060098991274</v>
+        <v>0.03117650265532343</v>
       </c>
       <c r="D63">
-        <v>-0.07871767907479528</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.07594096478047915</v>
+      </c>
+      <c r="E63">
+        <v>-0.009329403749366997</v>
+      </c>
+      <c r="F63">
+        <v>0.01186142129888206</v>
+      </c>
+      <c r="G63">
+        <v>0.01488306174824705</v>
+      </c>
+      <c r="H63">
+        <v>-0.04903680589424127</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.05893670719555701</v>
+        <v>-0.05004524168005375</v>
       </c>
       <c r="C64">
-        <v>0.07396918421804802</v>
+        <v>0.08140248720550576</v>
       </c>
       <c r="D64">
-        <v>-0.05232092074852698</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.05588480395591083</v>
+      </c>
+      <c r="E64">
+        <v>-0.01816680332517661</v>
+      </c>
+      <c r="F64">
+        <v>0.005807273696227098</v>
+      </c>
+      <c r="G64">
+        <v>0.06654764893151796</v>
+      </c>
+      <c r="H64">
+        <v>-0.02947620845864496</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.03992216382385891</v>
+        <v>-0.03942962443439119</v>
       </c>
       <c r="C65">
-        <v>0.02040749925367973</v>
+        <v>0.02917546021673414</v>
       </c>
       <c r="D65">
-        <v>-0.1272968488787386</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.1176057908025008</v>
+      </c>
+      <c r="E65">
+        <v>0.01154607265024581</v>
+      </c>
+      <c r="F65">
+        <v>0.01122188484964925</v>
+      </c>
+      <c r="G65">
+        <v>-6.931763679138706e-05</v>
+      </c>
+      <c r="H65">
+        <v>-0.02303832956180158</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.04047902042651914</v>
+        <v>-0.03772473905707329</v>
       </c>
       <c r="C66">
-        <v>0.06511002551957844</v>
+        <v>0.07770351011617427</v>
       </c>
       <c r="D66">
-        <v>-0.1116903151495804</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1289521022443129</v>
+      </c>
+      <c r="E66">
+        <v>-0.008979180485826039</v>
+      </c>
+      <c r="F66">
+        <v>-0.01079565794532676</v>
+      </c>
+      <c r="G66">
+        <v>0.002066829780250021</v>
+      </c>
+      <c r="H66">
+        <v>-0.05771636858294839</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.03991277723221129</v>
+        <v>-0.03866780032764774</v>
       </c>
       <c r="C67">
-        <v>0.02362372694490925</v>
+        <v>0.0259078517033928</v>
       </c>
       <c r="D67">
-        <v>-0.03430233478293091</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.02789835738557934</v>
+      </c>
+      <c r="E67">
+        <v>-0.01150932726006415</v>
+      </c>
+      <c r="F67">
+        <v>-0.02021563561854163</v>
+      </c>
+      <c r="G67">
+        <v>-0.01671923184463424</v>
+      </c>
+      <c r="H67">
+        <v>-0.04216555417775059</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.1682429093385911</v>
+        <v>-0.2025038142735719</v>
       </c>
       <c r="C68">
-        <v>-0.2184177395109667</v>
+        <v>-0.1940012651134216</v>
       </c>
       <c r="D68">
-        <v>-0.02183247055500899</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.02434068110299781</v>
+      </c>
+      <c r="E68">
+        <v>-0.02425847600830733</v>
+      </c>
+      <c r="F68">
+        <v>0.03234270669632971</v>
+      </c>
+      <c r="G68">
+        <v>-0.003202153921308419</v>
+      </c>
+      <c r="H68">
+        <v>-0.01291511233028346</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.08404031185007782</v>
+        <v>-0.07116363563085421</v>
       </c>
       <c r="C69">
-        <v>0.09228571579589513</v>
+        <v>0.09948355007448173</v>
       </c>
       <c r="D69">
-        <v>-0.06824818627559488</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.05107577761943068</v>
+      </c>
+      <c r="E69">
+        <v>-0.01977352798800831</v>
+      </c>
+      <c r="F69">
+        <v>0.01432827577166159</v>
+      </c>
+      <c r="G69">
+        <v>-0.009820376262515838</v>
+      </c>
+      <c r="H69">
+        <v>0.02269779251848773</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.1508972979568938</v>
+        <v>-0.1873135325267997</v>
       </c>
       <c r="C71">
-        <v>-0.2194149651712037</v>
+        <v>-0.2010108759655482</v>
       </c>
       <c r="D71">
-        <v>-0.03151283411187098</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.03761508247347772</v>
+      </c>
+      <c r="E71">
+        <v>-0.04212483378299463</v>
+      </c>
+      <c r="F71">
+        <v>0.07061181891476986</v>
+      </c>
+      <c r="G71">
+        <v>-0.03253016128724374</v>
+      </c>
+      <c r="H71">
+        <v>0.005622375343603233</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1068712951556422</v>
+        <v>-0.1001143406716952</v>
       </c>
       <c r="C72">
-        <v>0.05441536649464468</v>
+        <v>0.07708242847136268</v>
       </c>
       <c r="D72">
-        <v>-0.09324489675268335</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.09566235216921612</v>
+      </c>
+      <c r="E72">
+        <v>0.05290033131705993</v>
+      </c>
+      <c r="F72">
+        <v>0.02756109673012508</v>
+      </c>
+      <c r="G72">
+        <v>0.03763333134060516</v>
+      </c>
+      <c r="H72">
+        <v>-0.02956648616246645</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2546074633141055</v>
+        <v>-0.2336762476975176</v>
       </c>
       <c r="C73">
-        <v>0.04090329622180047</v>
+        <v>0.09453530875891725</v>
       </c>
       <c r="D73">
-        <v>-0.2987276365961769</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.1679899420705483</v>
+      </c>
+      <c r="E73">
+        <v>0.6182541510257336</v>
+      </c>
+      <c r="F73">
+        <v>-0.2026867196879165</v>
+      </c>
+      <c r="G73">
+        <v>0.061001351822175</v>
+      </c>
+      <c r="H73">
+        <v>0.1929682531034108</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1065885542995147</v>
+        <v>-0.09432716102591275</v>
       </c>
       <c r="C74">
-        <v>0.07239298716512214</v>
+        <v>0.09283368144357428</v>
       </c>
       <c r="D74">
-        <v>0.008734883151195897</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.01280002564652258</v>
+      </c>
+      <c r="E74">
+        <v>-0.03925688819614079</v>
+      </c>
+      <c r="F74">
+        <v>0.07718705259269899</v>
+      </c>
+      <c r="G74">
+        <v>0.03628382121329954</v>
+      </c>
+      <c r="H74">
+        <v>0.05470808319694241</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2497303222955024</v>
+        <v>-0.2217139927659966</v>
       </c>
       <c r="C75">
-        <v>0.1275157311768458</v>
+        <v>0.1681546958886875</v>
       </c>
       <c r="D75">
-        <v>0.07913165530656255</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.09772181461365463</v>
+      </c>
+      <c r="E75">
+        <v>-0.1050901382986081</v>
+      </c>
+      <c r="F75">
+        <v>0.03239755299079478</v>
+      </c>
+      <c r="G75">
+        <v>0.001645298156210495</v>
+      </c>
+      <c r="H75">
+        <v>0.08874093424967749</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.1379429526710943</v>
+        <v>-0.1226594681365479</v>
       </c>
       <c r="C76">
-        <v>0.09415306663489774</v>
+        <v>0.1145482073107798</v>
       </c>
       <c r="D76">
-        <v>0.005275018106269343</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.007642527737308582</v>
+      </c>
+      <c r="E76">
+        <v>-0.09951580115202537</v>
+      </c>
+      <c r="F76">
+        <v>0.04894693526187222</v>
+      </c>
+      <c r="G76">
+        <v>0.02505436179897012</v>
+      </c>
+      <c r="H76">
+        <v>-0.0004273515273233968</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.05113693921295634</v>
+        <v>-0.05525156463312854</v>
       </c>
       <c r="C77">
-        <v>0.06598904093914477</v>
+        <v>0.07663973936742349</v>
       </c>
       <c r="D77">
-        <v>-0.04054879401843747</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.128250128851275</v>
+      </c>
+      <c r="E77">
+        <v>-0.3741043488391807</v>
+      </c>
+      <c r="F77">
+        <v>-0.2835963274449634</v>
+      </c>
+      <c r="G77">
+        <v>-0.5078494717874966</v>
+      </c>
+      <c r="H77">
+        <v>0.5814243069541796</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.0425825125159733</v>
+        <v>-0.04520449860274033</v>
       </c>
       <c r="C78">
-        <v>0.06121091764245296</v>
+        <v>0.06764974825295794</v>
       </c>
       <c r="D78">
-        <v>-0.1267299241086932</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1366215168203467</v>
+      </c>
+      <c r="E78">
+        <v>-0.00992250457201977</v>
+      </c>
+      <c r="F78">
+        <v>0.03627633173685535</v>
+      </c>
+      <c r="G78">
+        <v>-0.008682234219161788</v>
+      </c>
+      <c r="H78">
+        <v>-0.0007705299762278191</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.04365082320112212</v>
+        <v>-0.04914397312831555</v>
       </c>
       <c r="C79">
-        <v>0.08252947546680621</v>
+        <v>0.09902787345582446</v>
       </c>
       <c r="D79">
-        <v>0.0835943538006898</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.02282111942654512</v>
+      </c>
+      <c r="E79">
+        <v>-0.2104238028521633</v>
+      </c>
+      <c r="F79">
+        <v>0.3575295368024118</v>
+      </c>
+      <c r="G79">
+        <v>0.6394999589984227</v>
+      </c>
+      <c r="H79">
+        <v>0.4046741579131719</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.02570921136486662</v>
+        <v>-0.02420056144124874</v>
       </c>
       <c r="C80">
-        <v>0.04671686628242972</v>
+        <v>0.04708165331055696</v>
       </c>
       <c r="D80">
-        <v>-0.01892217754720162</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01832776084733936</v>
+      </c>
+      <c r="E80">
+        <v>-0.01532885706170809</v>
+      </c>
+      <c r="F80">
+        <v>0.00573463211306896</v>
+      </c>
+      <c r="G80">
+        <v>0.007042390279075232</v>
+      </c>
+      <c r="H80">
+        <v>-0.07341935637030804</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1389219444961647</v>
+        <v>-0.1186674291566098</v>
       </c>
       <c r="C81">
-        <v>0.103471861006371</v>
+        <v>0.1236900385976142</v>
       </c>
       <c r="D81">
-        <v>0.07266382390101504</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.0740131938982778</v>
+      </c>
+      <c r="E81">
+        <v>-0.09715250666439226</v>
+      </c>
+      <c r="F81">
+        <v>0.06753742389622551</v>
+      </c>
+      <c r="G81">
+        <v>0.005249714180481563</v>
+      </c>
+      <c r="H81">
+        <v>0.02436366617048178</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.3179049214103603</v>
+        <v>-0.2613911309203182</v>
       </c>
       <c r="C82">
-        <v>0.260571161416786</v>
+        <v>0.2738891409904343</v>
       </c>
       <c r="D82">
-        <v>0.2370241095941192</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2380536024750382</v>
+      </c>
+      <c r="E82">
+        <v>0.02958558016737431</v>
+      </c>
+      <c r="F82">
+        <v>0.02087918406670987</v>
+      </c>
+      <c r="G82">
+        <v>-0.1974562668325027</v>
+      </c>
+      <c r="H82">
+        <v>0.04321270842291507</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.02731445237615219</v>
+        <v>-0.01933871809083038</v>
       </c>
       <c r="C83">
-        <v>0.05363341300113093</v>
+        <v>0.05124938055957369</v>
       </c>
       <c r="D83">
-        <v>-0.04887334484660611</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.05021934418121818</v>
+      </c>
+      <c r="E83">
+        <v>-0.04112449752025438</v>
+      </c>
+      <c r="F83">
+        <v>-0.06037853522181707</v>
+      </c>
+      <c r="G83">
+        <v>-0.06104512933473703</v>
+      </c>
+      <c r="H83">
+        <v>0.04238648392045084</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>-0.0008968325620189656</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.004888362083639997</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.01882082005200795</v>
+      </c>
+      <c r="E84">
+        <v>-0.01660038636223079</v>
+      </c>
+      <c r="F84">
+        <v>0.01563333085649793</v>
+      </c>
+      <c r="G84">
+        <v>0.001307862667131467</v>
+      </c>
+      <c r="H84">
+        <v>-0.02479415018985845</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.172511046444992</v>
+        <v>-0.1517062489095215</v>
       </c>
       <c r="C85">
-        <v>0.1075091895512487</v>
+        <v>0.1401109549505432</v>
       </c>
       <c r="D85">
-        <v>0.03768168772552793</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.05688124231572784</v>
+      </c>
+      <c r="E85">
+        <v>-0.03110067158668253</v>
+      </c>
+      <c r="F85">
+        <v>0.0591488304479182</v>
+      </c>
+      <c r="G85">
+        <v>0.09301508996156344</v>
+      </c>
+      <c r="H85">
+        <v>0.02722454377916339</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.01765170940665794</v>
+        <v>-0.01835436785052045</v>
       </c>
       <c r="C86">
-        <v>0.03450214907746869</v>
+        <v>0.03404915972563637</v>
       </c>
       <c r="D86">
-        <v>-0.1153093571764479</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.1171111014325785</v>
+      </c>
+      <c r="E86">
+        <v>-0.03093982109037846</v>
+      </c>
+      <c r="F86">
+        <v>-0.004386250699299642</v>
+      </c>
+      <c r="G86">
+        <v>-0.07733151209194548</v>
+      </c>
+      <c r="H86">
+        <v>0.01755908769017647</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.02246257508194971</v>
+        <v>-0.03053041783749275</v>
       </c>
       <c r="C87">
-        <v>0.01890912178299601</v>
+        <v>0.0275905804459435</v>
       </c>
       <c r="D87">
-        <v>-0.1029514885562483</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.1329529153853399</v>
+      </c>
+      <c r="E87">
+        <v>-0.06210873248941064</v>
+      </c>
+      <c r="F87">
+        <v>0.02158848986036795</v>
+      </c>
+      <c r="G87">
+        <v>-0.00690046099252655</v>
+      </c>
+      <c r="H87">
+        <v>-0.06243786435836379</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.07491720415599322</v>
+        <v>-0.06486087681136148</v>
       </c>
       <c r="C88">
-        <v>0.04074827853851124</v>
+        <v>0.0545737771313584</v>
       </c>
       <c r="D88">
-        <v>-0.04643889050515365</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.02355117212636021</v>
+      </c>
+      <c r="E88">
+        <v>0.0007363192564812524</v>
+      </c>
+      <c r="F88">
+        <v>0.03116694862802673</v>
+      </c>
+      <c r="G88">
+        <v>0.008190834274981238</v>
+      </c>
+      <c r="H88">
+        <v>-0.02844886645280561</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.2340696961640156</v>
+        <v>-0.2869577125320458</v>
       </c>
       <c r="C89">
-        <v>-0.3983112951464826</v>
+        <v>-0.3439624869450904</v>
       </c>
       <c r="D89">
-        <v>0.002182081886012517</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.005286824443221671</v>
+      </c>
+      <c r="E89">
+        <v>-0.06074872899019337</v>
+      </c>
+      <c r="F89">
+        <v>-0.006371659527776149</v>
+      </c>
+      <c r="G89">
+        <v>0.04942952037660336</v>
+      </c>
+      <c r="H89">
+        <v>-0.07801560381675299</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.2056134945420346</v>
+        <v>-0.2434030758981183</v>
       </c>
       <c r="C90">
-        <v>-0.2958667581659408</v>
+        <v>-0.246005996752563</v>
       </c>
       <c r="D90">
-        <v>-0.006133256865877183</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.02016820445040519</v>
+      </c>
+      <c r="E90">
+        <v>-0.04923373065863362</v>
+      </c>
+      <c r="F90">
+        <v>-0.002465163521664547</v>
+      </c>
+      <c r="G90">
+        <v>-0.04390184280573812</v>
+      </c>
+      <c r="H90">
+        <v>-0.05059327551601691</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.1767246003012735</v>
+        <v>-0.1508208586067805</v>
       </c>
       <c r="C91">
-        <v>0.1450998042489116</v>
+        <v>0.1599232648836371</v>
       </c>
       <c r="D91">
-        <v>0.08580433660439307</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.08443081067996966</v>
+      </c>
+      <c r="E91">
+        <v>-0.1029284874775406</v>
+      </c>
+      <c r="F91">
+        <v>0.07201142008056724</v>
+      </c>
+      <c r="G91">
+        <v>0.04701571253557426</v>
+      </c>
+      <c r="H91">
+        <v>0.08363007282794084</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1797564376329977</v>
+        <v>-0.2298529676873937</v>
       </c>
       <c r="C92">
-        <v>-0.2819522020313804</v>
+        <v>-0.2667807319987828</v>
       </c>
       <c r="D92">
-        <v>-0.02214839321970571</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.03237411932871474</v>
+      </c>
+      <c r="E92">
+        <v>-0.09101046801478774</v>
+      </c>
+      <c r="F92">
+        <v>0.01303666252362587</v>
+      </c>
+      <c r="G92">
+        <v>-0.0287492554404688</v>
+      </c>
+      <c r="H92">
+        <v>-0.01764756274720226</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.2308696727330635</v>
+        <v>-0.2628782197845574</v>
       </c>
       <c r="C93">
-        <v>-0.3041280777434403</v>
+        <v>-0.2527883455781517</v>
       </c>
       <c r="D93">
-        <v>-0.01271725897047923</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.006269967846785119</v>
+      </c>
+      <c r="E93">
+        <v>0.01334005618075797</v>
+      </c>
+      <c r="F93">
+        <v>0.02633895877489047</v>
+      </c>
+      <c r="G93">
+        <v>0.008426669841115257</v>
+      </c>
+      <c r="H93">
+        <v>-0.01102506503668856</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.3798041163560863</v>
+        <v>-0.3303223105785206</v>
       </c>
       <c r="C94">
-        <v>0.2012883787167405</v>
+        <v>0.2650558805024918</v>
       </c>
       <c r="D94">
-        <v>0.4443494317252134</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4414794173614715</v>
+      </c>
+      <c r="E94">
+        <v>-0.05075415080070041</v>
+      </c>
+      <c r="F94">
+        <v>-0.04761587921817804</v>
+      </c>
+      <c r="G94">
+        <v>-0.1071987789480733</v>
+      </c>
+      <c r="H94">
+        <v>-0.4111471683750866</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.07104598864560831</v>
+        <v>-0.06804921447862118</v>
       </c>
       <c r="C95">
-        <v>0.06232380217412318</v>
+        <v>0.06569757072440759</v>
       </c>
       <c r="D95">
-        <v>-0.0714049762107829</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.08091828596008369</v>
+      </c>
+      <c r="E95">
+        <v>-0.2875737676681964</v>
+      </c>
+      <c r="F95">
+        <v>-0.7800083960504988</v>
+      </c>
+      <c r="G95">
+        <v>0.4370661301579886</v>
+      </c>
+      <c r="H95">
+        <v>-0.1369408527132908</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,38 +3187,74 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>5.260702651366981e-05</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>6.843370109260132e-05</v>
       </c>
       <c r="D97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>4.78763993514803e-05</v>
+      </c>
+      <c r="E97">
+        <v>4.661763391529915e-05</v>
+      </c>
+      <c r="F97">
+        <v>0.000184151774420119</v>
+      </c>
+      <c r="G97">
+        <v>-0.0001438845435218821</v>
+      </c>
+      <c r="H97">
+        <v>0.0001638972019223561</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1679641946891022</v>
+        <v>-0.163050410639849</v>
       </c>
       <c r="C98">
-        <v>0.04367151680029814</v>
+        <v>0.07147776236672929</v>
       </c>
       <c r="D98">
-        <v>-0.1647910573058516</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1224222581307052</v>
+      </c>
+      <c r="E98">
+        <v>0.310576099370201</v>
+      </c>
+      <c r="F98">
+        <v>-0.03753303790910002</v>
+      </c>
+      <c r="G98">
+        <v>0.0328524565944926</v>
+      </c>
+      <c r="H98">
+        <v>0.1064386173972493</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.0008529645340973014</v>
+        <v>-0.004574740118599397</v>
       </c>
       <c r="C101">
-        <v>0.02068378328609763</v>
+        <v>0.0210963542013083</v>
       </c>
       <c r="D101">
-        <v>-0.08143874470052155</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.09289275206050625</v>
+      </c>
+      <c r="E101">
+        <v>-0.01838057656209724</v>
+      </c>
+      <c r="F101">
+        <v>0.03250328295331532</v>
+      </c>
+      <c r="G101">
+        <v>0.007854617513824848</v>
+      </c>
+      <c r="H101">
+        <v>-0.08926642255740498</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1245740405706805</v>
+        <v>-0.1017685781739263</v>
       </c>
       <c r="C102">
-        <v>0.1158021487972233</v>
+        <v>0.1207310704219034</v>
       </c>
       <c r="D102">
-        <v>0.05379949859395723</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.06264908321015598</v>
+      </c>
+      <c r="E102">
+        <v>-0.02963529767343599</v>
+      </c>
+      <c r="F102">
+        <v>-0.006920715423583526</v>
+      </c>
+      <c r="G102">
+        <v>-0.01836098344588675</v>
+      </c>
+      <c r="H102">
+        <v>0.03893877530491663</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
